--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H2">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I2">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J2">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N2">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O2">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P2">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q2">
-        <v>122.9344550772</v>
+        <v>136.8649075528157</v>
       </c>
       <c r="R2">
-        <v>122.9344550772</v>
+        <v>547.4596302112629</v>
       </c>
       <c r="S2">
-        <v>0.031240324817021</v>
+        <v>0.03248045422980207</v>
       </c>
       <c r="T2">
-        <v>0.031240324817021</v>
+        <v>0.01887747960196547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H3">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I3">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J3">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N3">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O3">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P3">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q3">
-        <v>12.07203962555078</v>
+        <v>14.037521929947</v>
       </c>
       <c r="R3">
-        <v>12.07203962555078</v>
+        <v>84.22513157968199</v>
       </c>
       <c r="S3">
-        <v>0.00306776842073545</v>
+        <v>0.003331351306174218</v>
       </c>
       <c r="T3">
-        <v>0.00306776842073545</v>
+        <v>0.002904247392186241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H4">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I4">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J4">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N4">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O4">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P4">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q4">
-        <v>22.50698861158829</v>
+        <v>26.18680901460817</v>
       </c>
       <c r="R4">
-        <v>22.50698861158829</v>
+        <v>157.120854087649</v>
       </c>
       <c r="S4">
-        <v>0.005719516423914388</v>
+        <v>0.006214591211376227</v>
       </c>
       <c r="T4">
-        <v>0.005719516423914388</v>
+        <v>0.005417834584329805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H5">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I5">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J5">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N5">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O5">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P5">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q5">
-        <v>26.16140281608455</v>
+        <v>29.68398130595083</v>
       </c>
       <c r="R5">
-        <v>26.16140281608455</v>
+        <v>178.103887835705</v>
       </c>
       <c r="S5">
-        <v>0.006648182733881803</v>
+        <v>0.007044531819043343</v>
       </c>
       <c r="T5">
-        <v>0.006648182733881803</v>
+        <v>0.006141370658420644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H6">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I6">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J6">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N6">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O6">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P6">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q6">
-        <v>70.25788324423065</v>
+        <v>79.22400663450351</v>
       </c>
       <c r="R6">
-        <v>70.25788324423065</v>
+        <v>475.344039807021</v>
       </c>
       <c r="S6">
-        <v>0.01785405964607538</v>
+        <v>0.0188012527637921</v>
       </c>
       <c r="T6">
-        <v>0.01785405964607538</v>
+        <v>0.01639079289172451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H7">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I7">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J7">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N7">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O7">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P7">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q7">
-        <v>25.2728302310504</v>
+        <v>28.34710621351675</v>
       </c>
       <c r="R7">
-        <v>25.2728302310504</v>
+        <v>113.388424854067</v>
       </c>
       <c r="S7">
-        <v>0.006422377070509931</v>
+        <v>0.006727267802816167</v>
       </c>
       <c r="T7">
-        <v>0.006422377070509931</v>
+        <v>0.003909854826109528</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H8">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I8">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J8">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N8">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O8">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P8">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q8">
-        <v>1278.376949560397</v>
+        <v>1353.76576683502</v>
       </c>
       <c r="R8">
-        <v>1278.376949560397</v>
+        <v>8122.594601010121</v>
       </c>
       <c r="S8">
-        <v>0.3248634495331665</v>
+        <v>0.3212724708895121</v>
       </c>
       <c r="T8">
-        <v>0.3248634495331665</v>
+        <v>0.2800829603388879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H9">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I9">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J9">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N9">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O9">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P9">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q9">
-        <v>125.5353284137675</v>
+        <v>138.84871571352</v>
       </c>
       <c r="R9">
-        <v>125.5353284137675</v>
+        <v>1249.63844142168</v>
       </c>
       <c r="S9">
-        <v>0.03190126342687837</v>
+        <v>0.03295124686260019</v>
       </c>
       <c r="T9">
-        <v>0.03190126342687837</v>
+        <v>0.04308997939933282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H10">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I10">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J10">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N10">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O10">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P10">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q10">
-        <v>234.0467969456117</v>
+        <v>259.0204181663066</v>
       </c>
       <c r="R10">
-        <v>234.0467969456117</v>
+        <v>2331.18376349676</v>
       </c>
       <c r="S10">
-        <v>0.05947639296381711</v>
+        <v>0.06147010937473745</v>
       </c>
       <c r="T10">
-        <v>0.05947639296381711</v>
+        <v>0.08038377903200107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H11">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I11">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J11">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N11">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O11">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P11">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q11">
-        <v>272.0485018398203</v>
+        <v>293.6118427571333</v>
       </c>
       <c r="R11">
-        <v>272.0485018398203</v>
+        <v>2642.5065848142</v>
       </c>
       <c r="S11">
-        <v>0.06913345455611139</v>
+        <v>0.06967926395829951</v>
       </c>
       <c r="T11">
-        <v>0.06913345455611139</v>
+        <v>0.09111879926861358</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H12">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I12">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J12">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N12">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O12">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P12">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q12">
-        <v>730.6011842483683</v>
+        <v>783.62488976156</v>
       </c>
       <c r="R12">
-        <v>730.6011842483683</v>
+        <v>7052.62400785404</v>
       </c>
       <c r="S12">
-        <v>0.1856616868988125</v>
+        <v>0.1859679944284623</v>
       </c>
       <c r="T12">
-        <v>0.1856616868988125</v>
+        <v>0.2431882800147655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H13">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I13">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J13">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N13">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O13">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P13">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q13">
-        <v>262.8083688762374</v>
+        <v>280.38846967318</v>
       </c>
       <c r="R13">
-        <v>262.8083688762374</v>
+        <v>1682.33081803908</v>
       </c>
       <c r="S13">
-        <v>0.06678533534938842</v>
+        <v>0.06654112451922381</v>
       </c>
       <c r="T13">
-        <v>0.06678533534938842</v>
+        <v>0.05801005946143506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H14">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I14">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J14">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N14">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O14">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P14">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q14">
-        <v>74.58877364623673</v>
+        <v>79.847619711398</v>
       </c>
       <c r="R14">
-        <v>74.58877364623673</v>
+        <v>479.085718268388</v>
       </c>
       <c r="S14">
-        <v>0.01895463330396994</v>
+        <v>0.01894924713549297</v>
       </c>
       <c r="T14">
-        <v>0.01895463330396994</v>
+        <v>0.01651981328872495</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H15">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I15">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J15">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N15">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O15">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P15">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q15">
-        <v>7.324542419886703</v>
+        <v>8.189555181047998</v>
       </c>
       <c r="R15">
-        <v>7.324542419886703</v>
+        <v>73.70599662943198</v>
       </c>
       <c r="S15">
-        <v>0.001861325892644298</v>
+        <v>0.001943525750878246</v>
       </c>
       <c r="T15">
-        <v>0.001861325892644298</v>
+        <v>0.002541527029815344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H16">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I16">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J16">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N16">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O16">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P16">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q16">
-        <v>13.65580282561109</v>
+        <v>15.27750542516933</v>
       </c>
       <c r="R16">
-        <v>13.65580282561109</v>
+        <v>137.497548826524</v>
       </c>
       <c r="S16">
-        <v>0.003470237173470867</v>
+        <v>0.003625621239076754</v>
       </c>
       <c r="T16">
-        <v>0.003470237173470867</v>
+        <v>0.004741184609888625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H17">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I17">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J17">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N17">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O17">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P17">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q17">
-        <v>15.87306790184697</v>
+        <v>17.31777190528666</v>
       </c>
       <c r="R17">
-        <v>15.87306790184697</v>
+        <v>155.85994714758</v>
       </c>
       <c r="S17">
-        <v>0.004033692562308331</v>
+        <v>0.004109812425911681</v>
       </c>
       <c r="T17">
-        <v>0.004033692562308331</v>
+        <v>0.005374356045041083</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H18">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I18">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J18">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N18">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O18">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P18">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q18">
-        <v>42.62799511232851</v>
+        <v>46.219651676044</v>
       </c>
       <c r="R18">
-        <v>42.62799511232851</v>
+        <v>415.976865084396</v>
       </c>
       <c r="S18">
-        <v>0.01083270278272468</v>
+        <v>0.01096873776940827</v>
       </c>
       <c r="T18">
-        <v>0.01083270278272468</v>
+        <v>0.01434369650688204</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H19">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I19">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J19">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N19">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O19">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P19">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q19">
-        <v>15.3339388239026</v>
+        <v>16.537832796782</v>
       </c>
       <c r="R19">
-        <v>15.3339388239026</v>
+        <v>99.22699678069199</v>
       </c>
       <c r="S19">
-        <v>0.003896688111418577</v>
+        <v>0.003924719132321851</v>
       </c>
       <c r="T19">
-        <v>0.003896688111418577</v>
+        <v>0.003421541067729435</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H20">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I20">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J20">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N20">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O20">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P20">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q20">
-        <v>256.7367890890395</v>
+        <v>264.1854888570975</v>
       </c>
       <c r="R20">
-        <v>256.7367890890395</v>
+        <v>1056.74195542839</v>
       </c>
       <c r="S20">
-        <v>0.06524241457436722</v>
+        <v>0.06269587166227772</v>
       </c>
       <c r="T20">
-        <v>0.06524241457436722</v>
+        <v>0.03643853100262831</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H21">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I21">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J21">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N21">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O21">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P21">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q21">
-        <v>25.2112940125146</v>
+        <v>27.09613194291</v>
       </c>
       <c r="R21">
-        <v>25.2112940125146</v>
+        <v>162.57679165746</v>
       </c>
       <c r="S21">
-        <v>0.006406739375985135</v>
+        <v>0.006430389565248785</v>
       </c>
       <c r="T21">
-        <v>0.006406739375985135</v>
+        <v>0.005605965990738637</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H22">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I22">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J22">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N22">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O22">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P22">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q22">
-        <v>47.0036816332254</v>
+        <v>50.547470968495</v>
       </c>
       <c r="R22">
-        <v>47.0036816332254</v>
+        <v>303.28482581097</v>
       </c>
       <c r="S22">
-        <v>0.01194466011091584</v>
+        <v>0.01199580554709309</v>
       </c>
       <c r="T22">
-        <v>0.01194466011091584</v>
+        <v>0.01045785441864066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H23">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I23">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J23">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N23">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O23">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P23">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q23">
-        <v>54.63557432168741</v>
+        <v>57.29793891477499</v>
       </c>
       <c r="R23">
-        <v>54.63557432168741</v>
+        <v>343.7876334886499</v>
       </c>
       <c r="S23">
-        <v>0.01388409040656791</v>
+        <v>0.01359781053930983</v>
       </c>
       <c r="T23">
-        <v>0.01388409040656791</v>
+        <v>0.01185447050421884</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H24">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I24">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J24">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N24">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O24">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P24">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q24">
-        <v>146.7268337504656</v>
+        <v>152.923297112355</v>
       </c>
       <c r="R24">
-        <v>146.7268337504656</v>
+        <v>917.53978267413</v>
       </c>
       <c r="S24">
-        <v>0.03728648687513252</v>
+        <v>0.03629139303375859</v>
       </c>
       <c r="T24">
-        <v>0.03728648687513252</v>
+        <v>0.03163856762322121</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H25">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I25">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J25">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N25">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O25">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P25">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q25">
-        <v>52.77987591548425</v>
+        <v>54.7174162216275</v>
       </c>
       <c r="R25">
-        <v>52.77987591548425</v>
+        <v>218.86966488651</v>
       </c>
       <c r="S25">
-        <v>0.01341251699018266</v>
+        <v>0.01298540703338266</v>
       </c>
       <c r="T25">
-        <v>0.01341251699018266</v>
+        <v>0.007547054442698721</v>
       </c>
     </row>
   </sheetData>
